--- a/biology/Zoologie/Contomastix_serrana/Contomastix_serrana.xlsx
+++ b/biology/Zoologie/Contomastix_serrana/Contomastix_serrana.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Contomastix serrana est une espèce de sauriens de la famille des Teiidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Contomastix serrana est une espèce de sauriens de la famille des Teiidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de la province de Córdoba en Argentine. Elle se rencontre dans les Sierras de Córdoba[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de la province de Córdoba en Argentine. Elle se rencontre dans les Sierras de Córdoba.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Cei &amp; Martori, 1991 : A New Species of Cnemidophorus of the lacertoides species group from the eastern Sierras de Cordoba, Central Argentina (Lacertilia, Teiidae). Museo Regionale Di Scienze Naturali Bollettino (Torino), vol. 9, no 1, p. 33-38.</t>
         </is>
